--- a/SiliconValley.InformationSystem/SiliconValley.InformationSystem.Web/uploadXLSXfile/Template/DormitoryDepositTemplate.xlsx
+++ b/SiliconValley.InformationSystem/SiliconValley.InformationSystem.Web/uploadXLSXfile/Template/DormitoryDepositTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9840"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>湖南硅谷高科软件学院</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>班主任</t>
+  </si>
+  <si>
+    <t>汪千钧、姜日溢、郭元卓、曾彬、王东胜、乔羽、熊聪、范斌</t>
+  </si>
+  <si>
+    <t>锁体</t>
+  </si>
+  <si>
+    <t>谢琴</t>
   </si>
 </sst>
 </file>
@@ -68,13 +77,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,11 +105,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="仿宋"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -110,8 +185,61 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,113 +261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,19 +276,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,168 +456,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -470,26 +492,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,10 +524,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -567,6 +578,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,10 +624,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,125 +636,125 @@
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,7 +785,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,7 +803,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1108,13 +1154,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C$1:C$1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
@@ -1141,18 +1187,18 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:25">
       <c r="A2" s="5" t="s">
@@ -1170,18 +1216,18 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
     </row>
     <row r="3" ht="46.8" spans="1:25">
       <c r="A3" s="7" t="s">
@@ -1220,21 +1266,54 @@
       <c r="L3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2098</v>
+      </c>
+      <c r="C4" s="11">
+        <v>44138</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10">
+        <v>24</v>
+      </c>
+      <c r="I4" s="10">
+        <v>8</v>
+      </c>
+      <c r="J4" s="10">
+        <v>3</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SiliconValley.InformationSystem/SiliconValley.InformationSystem.Web/uploadXLSXfile/Template/DormitoryDepositTemplate.xlsx
+++ b/SiliconValley.InformationSystem/SiliconValley.InformationSystem.Web/uploadXLSXfile/Template/DormitoryDepositTemplate.xlsx
@@ -21,7 +21,28 @@
     <t>湖南硅谷高科软件学院</t>
   </si>
   <si>
-    <t>2019年11月1日-2019年11月30日</t>
+    <r>
+      <t>2019年11月1日-2019年11月30日（注意：寝室号是完整的。报修日期/隔开,短日期。成员、隔开。内容对应维修物品的名称。班主任需填.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他可有可无</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>序号</t>
@@ -63,7 +84,7 @@
     <t>班主任</t>
   </si>
   <si>
-    <t>汪千钧、姜日溢、郭元卓、曾彬、王东胜、乔羽、熊聪、范斌</t>
+    <t>丁杨威、李尚武</t>
   </si>
   <si>
     <t>锁体</t>
@@ -77,13 +98,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +144,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -130,40 +166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,7 +197,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +226,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -222,49 +289,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -276,187 +304,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +535,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -522,48 +559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -575,6 +570,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,11 +602,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,16 +652,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,115 +670,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,7 +1185,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1287,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="10">
-        <v>2098</v>
+        <v>1088</v>
       </c>
       <c r="C4" s="11">
-        <v>44138</v>
+        <v>44298</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>15</v>
@@ -1300,15 +1328,9 @@
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10">
-        <v>24</v>
-      </c>
-      <c r="I4" s="10">
-        <v>8</v>
-      </c>
-      <c r="J4" s="10">
-        <v>3</v>
-      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
